--- a/Rover 2015/electrical/Rover_BOM.xlsx
+++ b/Rover 2015/electrical/Rover_BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Reference</t>
   </si>
@@ -114,9 +114,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>1KÎ©</t>
-  </si>
-  <si>
     <t>http://www.jameco.com/webapp/wcs/stores/servlet/Product_10001_10001_690865_-1</t>
   </si>
   <si>
@@ -166,6 +163,51 @@
   </si>
   <si>
     <t>Low_Power_Battery</t>
+  </si>
+  <si>
+    <t>1KΩ</t>
+  </si>
+  <si>
+    <t>Microcontroller for rover</t>
+  </si>
+  <si>
+    <t>Ultrasonic distance sensor to check for landing</t>
+  </si>
+  <si>
+    <t>Accelerometer to sense takeoff and landing</t>
+  </si>
+  <si>
+    <t>Magnetometer to sense direction of rover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solenoid to release first marker </t>
+  </si>
+  <si>
+    <t>Solenoid to release second marker</t>
+  </si>
+  <si>
+    <t>Resistor to limit current on transistor for solenoid 1 activation</t>
+  </si>
+  <si>
+    <t>Resistor to limit current on transistor for solenoid 2 activation</t>
+  </si>
+  <si>
+    <t>Diode to prevent flyback voltage from solenoid 1</t>
+  </si>
+  <si>
+    <t>Diode to prevent flyback voltage from solenoid 2</t>
+  </si>
+  <si>
+    <t>Transistor to activate solenoid 1 from arduino digital output</t>
+  </si>
+  <si>
+    <t>Reflectance sensor placed on tread 1 to sense distance traveled</t>
+  </si>
+  <si>
+    <t>Reflectance sensor placed on tread 2 to sense distance traveled</t>
+  </si>
+  <si>
+    <t>Transistor to activate solenoid 2 from arduino digital output</t>
   </si>
 </sst>
 </file>
@@ -989,15 +1031,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="101.28515625" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,6 +1078,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1048,6 +1096,9 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1064,6 +1115,9 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1079,6 +1133,9 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1096,6 +1153,9 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1112,6 +1172,12 @@
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1126,6 +1192,9 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1140,108 +1209,129 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>0.99</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+      <c r="E11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>0.5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>0.49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>0.49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
